--- a/schedule/schedule_N-03_C-updated_I-001.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-001.xlsx
@@ -19,6 +19,81 @@
     <t>0_0_0</t>
   </si>
   <si>
+    <t>3_3_1</t>
+  </si>
+  <si>
+    <t>2_1_1</t>
+  </si>
+  <si>
+    <t>2_3_1</t>
+  </si>
+  <si>
+    <t>3_3_3</t>
+  </si>
+  <si>
+    <t>2_2_1</t>
+  </si>
+  <si>
+    <t>1_1_-1</t>
+  </si>
+  <si>
+    <t>2_1_-1</t>
+  </si>
+  <si>
+    <t>3_1_-1</t>
+  </si>
+  <si>
+    <t>1_2_-1</t>
+  </si>
+  <si>
+    <t>2_2_-1</t>
+  </si>
+  <si>
+    <t>3_2_-1</t>
+  </si>
+  <si>
+    <t>1_3_-1</t>
+  </si>
+  <si>
+    <t>2_3_-1</t>
+  </si>
+  <si>
+    <t>2_2_-2</t>
+  </si>
+  <si>
+    <t>3_2_-2</t>
+  </si>
+  <si>
+    <t>2_2_2</t>
+  </si>
+  <si>
+    <t>2_3_2</t>
+  </si>
+  <si>
+    <t>3_1_2</t>
+  </si>
+  <si>
+    <t>3_1_1</t>
+  </si>
+  <si>
+    <t>3_2_1</t>
+  </si>
+  <si>
+    <t>1_3_-2</t>
+  </si>
+  <si>
+    <t>2_3_-2</t>
+  </si>
+  <si>
+    <t>3_3_-2</t>
+  </si>
+  <si>
+    <t>3_2_2</t>
+  </si>
+  <si>
+    <t>3_3_2</t>
+  </si>
+  <si>
     <t>1_1_1</t>
   </si>
   <si>
@@ -28,48 +103,6 @@
     <t>1_3_1</t>
   </si>
   <si>
-    <t>3_1_1</t>
-  </si>
-  <si>
-    <t>3_2_1</t>
-  </si>
-  <si>
-    <t>3_3_1</t>
-  </si>
-  <si>
-    <t>2_1_1</t>
-  </si>
-  <si>
-    <t>2_3_1</t>
-  </si>
-  <si>
-    <t>3_3_3</t>
-  </si>
-  <si>
-    <t>2_2_1</t>
-  </si>
-  <si>
-    <t>1_1_-1</t>
-  </si>
-  <si>
-    <t>2_1_-1</t>
-  </si>
-  <si>
-    <t>3_1_-1</t>
-  </si>
-  <si>
-    <t>2_2_-1</t>
-  </si>
-  <si>
-    <t>3_2_-1</t>
-  </si>
-  <si>
-    <t>1_3_-1</t>
-  </si>
-  <si>
-    <t>2_3_-1</t>
-  </si>
-  <si>
     <t>3_3_-1</t>
   </si>
   <si>
@@ -82,45 +115,12 @@
     <t>3_1_-2</t>
   </si>
   <si>
-    <t>2_2_-2</t>
-  </si>
-  <si>
-    <t>3_2_-2</t>
-  </si>
-  <si>
-    <t>1_3_-2</t>
-  </si>
-  <si>
-    <t>2_3_-2</t>
-  </si>
-  <si>
-    <t>3_3_-2</t>
+    <t>1_2_-2</t>
   </si>
   <si>
     <t>2_1_2</t>
   </si>
   <si>
-    <t>2_2_2</t>
-  </si>
-  <si>
-    <t>2_3_2</t>
-  </si>
-  <si>
-    <t>3_1_2</t>
-  </si>
-  <si>
-    <t>3_2_2</t>
-  </si>
-  <si>
-    <t>3_3_2</t>
-  </si>
-  <si>
-    <t>1_2_-1</t>
-  </si>
-  <si>
-    <t>1_2_-2</t>
-  </si>
-  <si>
     <t>M00001</t>
   </si>
   <si>
@@ -157,21 +157,21 @@
     <t>D10030</t>
   </si>
   <si>
+    <t>F20020</t>
+  </si>
+  <si>
     <t>D12010</t>
   </si>
   <si>
-    <t>F20020</t>
+    <t>F20030</t>
+  </si>
+  <si>
+    <t>S10030</t>
   </si>
   <si>
     <t>T10030</t>
   </si>
   <si>
-    <t>F20030</t>
-  </si>
-  <si>
-    <t>S10030</t>
-  </si>
-  <si>
     <t>T10040</t>
   </si>
   <si>
@@ -274,10 +274,10 @@
     <t>W11040</t>
   </si>
   <si>
+    <t>R10010</t>
+  </si>
+  <si>
     <t>R10020</t>
-  </si>
-  <si>
-    <t>R10010</t>
   </si>
   <si>
     <t>T30010</t>
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT36"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -867,8 +867,11 @@
       <c r="AT1" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,2022 +885,2022 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
       <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>68</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>73</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>75</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>81</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>82</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>83</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>84</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>85</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>86</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
       <c r="AA3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>95</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>97</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:46">
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>73</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>75</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>79</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>81</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>82</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>83</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>84</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>85</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" t="s">
         <v>38</v>
       </c>
-      <c r="X4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>90</v>
-      </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+        <v>53</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>59</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>62</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>65</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>68</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>75</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>79</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>81</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>82</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>83</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>84</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>87</v>
       </c>
       <c r="X5" t="s">
         <v>86</v>
       </c>
       <c r="Y5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" t="s">
-        <v>47</v>
-      </c>
       <c r="AA5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" t="s">
         <v>91</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>93</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>95</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>97</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>99</v>
       </c>
-      <c r="AF5" t="s">
-        <v>102</v>
-      </c>
       <c r="AG5" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="AK5" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AM5" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="AN5" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="AO5" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="AQ5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
+        <v>72</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W7" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W8" t="s">
-        <v>87</v>
-      </c>
-      <c r="X8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" t="s">
-        <v>87</v>
-      </c>
-      <c r="X9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:47">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" t="s">
-        <v>85</v>
-      </c>
-      <c r="W10" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:47">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>55</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>58</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>61</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>64</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>67</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>70</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>72</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>76</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>78</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:47">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
       <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>58</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>61</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>64</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>67</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>70</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>72</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>76</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>78</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:47">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>76</v>
-      </c>
-      <c r="R16" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>78</v>
-      </c>
-      <c r="S17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>38</v>
+      <c r="B18" t="s">
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:47">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:47">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s">
+        <v>82</v>
+      </c>
+      <c r="U21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V21" t="s">
+        <v>84</v>
+      </c>
+      <c r="W21" t="s">
+        <v>85</v>
+      </c>
+      <c r="X21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="AA21" t="s">
         <v>48</v>
       </c>
-      <c r="G21" t="s">
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI21" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="AJ21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s">
+        <v>83</v>
+      </c>
+      <c r="V22" t="s">
+        <v>84</v>
+      </c>
+      <c r="W22" t="s">
+        <v>85</v>
+      </c>
+      <c r="X22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="Y22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="AB22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
       <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
         <v>57</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>60</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>63</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>66</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:47">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>60</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>63</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>66</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:47">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
+      <c r="G25" t="s">
+        <v>47</v>
       </c>
       <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
         <v>57</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>60</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>63</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>66</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:47">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>67</v>
+      </c>
+      <c r="M26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>67</v>
+      </c>
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U28" t="s">
+        <v>83</v>
+      </c>
+      <c r="V28" t="s">
+        <v>84</v>
+      </c>
+      <c r="W28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="AA28" t="s">
         <v>48</v>
       </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="AC28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
       </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" t="s">
+        <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>81</v>
+      </c>
+      <c r="T29" t="s">
+        <v>82</v>
+      </c>
+      <c r="U29" t="s">
+        <v>83</v>
+      </c>
+      <c r="V29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W29" t="s">
+        <v>85</v>
+      </c>
+      <c r="X29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
+      <c r="C30" t="s">
+        <v>36</v>
       </c>
       <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
         <v>51</v>
       </c>
-      <c r="F30" t="s">
-        <v>53</v>
-      </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>77</v>
+      </c>
+      <c r="R30" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" t="s">
+        <v>81</v>
+      </c>
+      <c r="T30" t="s">
+        <v>82</v>
+      </c>
+      <c r="U30" t="s">
+        <v>83</v>
+      </c>
+      <c r="V30" t="s">
+        <v>84</v>
+      </c>
+      <c r="W30" t="s">
+        <v>85</v>
+      </c>
+      <c r="X30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
         <v>53</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>55</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>58</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>61</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>64</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>67</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>70</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>72</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
         <v>74</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>76</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" t="s">
         <v>78</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="T31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:47">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
+      <c r="C32" t="s">
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M32" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" t="s">
-        <v>74</v>
-      </c>
-      <c r="O32" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M33" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" t="s">
-        <v>74</v>
-      </c>
-      <c r="O33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" t="s">
-        <v>74</v>
-      </c>
-      <c r="O34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="N36" t="s">
+        <v>67</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
